--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -534,52 +534,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H2">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I2">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J2">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="N2">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="O2">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="P2">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="Q2">
-        <v>0.7967691936732595</v>
+        <v>0.9876905237033333</v>
       </c>
       <c r="R2">
-        <v>0.7967691936732595</v>
+        <v>8.88921471333</v>
       </c>
       <c r="S2">
-        <v>0.004355129515273008</v>
+        <v>0.003502655083589217</v>
       </c>
       <c r="T2">
-        <v>0.004355129515273008</v>
+        <v>0.003564705181572058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H3">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I3">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J3">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="N3">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="O3">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="P3">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="Q3">
-        <v>0.9185459710136467</v>
+        <v>1.140870595003778</v>
       </c>
       <c r="R3">
-        <v>0.9185459710136467</v>
+        <v>10.267835355034</v>
       </c>
       <c r="S3">
-        <v>0.005020759714684858</v>
+        <v>0.004045878838974986</v>
       </c>
       <c r="T3">
-        <v>0.005020759714684858</v>
+        <v>0.004117552233127129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H4">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I4">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J4">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="N4">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="O4">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="P4">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="Q4">
-        <v>3.731677964346972</v>
+        <v>6.205095597162888</v>
       </c>
       <c r="R4">
-        <v>3.731677964346972</v>
+        <v>55.845860374466</v>
       </c>
       <c r="S4">
-        <v>0.02039730071527592</v>
+        <v>0.02200518190259348</v>
       </c>
       <c r="T4">
-        <v>0.02039730071527592</v>
+        <v>0.0223950072381178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H5">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I5">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J5">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="N5">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="O5">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="P5">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="Q5">
-        <v>4.807790241609506</v>
+        <v>5.813988861542889</v>
       </c>
       <c r="R5">
-        <v>4.807790241609506</v>
+        <v>52.325899753886</v>
       </c>
       <c r="S5">
-        <v>0.02627931570489613</v>
+        <v>0.02061819684718472</v>
       </c>
       <c r="T5">
-        <v>0.02627931570489613</v>
+        <v>0.02098345151944503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H6">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I6">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J6">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.72799506347501</v>
+        <v>2.731955</v>
       </c>
       <c r="N6">
-        <v>2.72799506347501</v>
+        <v>5.46391</v>
       </c>
       <c r="O6">
-        <v>0.05914696656979722</v>
+        <v>0.0522203897564463</v>
       </c>
       <c r="P6">
-        <v>0.05914696656979722</v>
+        <v>0.03543032157151783</v>
       </c>
       <c r="Q6">
-        <v>0.6446695792568254</v>
+        <v>0.7795014349366667</v>
       </c>
       <c r="R6">
-        <v>0.6446695792568254</v>
+        <v>4.677008609620001</v>
       </c>
       <c r="S6">
-        <v>0.003523755103126372</v>
+        <v>0.002764352394015776</v>
       </c>
       <c r="T6">
-        <v>0.003523755103126372</v>
+        <v>0.001875548894096176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H7">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I7">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J7">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="N7">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="O7">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="P7">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="Q7">
-        <v>4.074076890338945</v>
+        <v>6.206231987584999</v>
       </c>
       <c r="R7">
-        <v>4.074076890338945</v>
+        <v>55.85608788826499</v>
       </c>
       <c r="S7">
-        <v>0.02226884856178683</v>
+        <v>0.02200921189335822</v>
       </c>
       <c r="T7">
-        <v>0.02226884856178683</v>
+        <v>0.0223991086208169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H8">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I8">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J8">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="N8">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="O8">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="P8">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="Q8">
-        <v>4.696751509641404</v>
+        <v>7.168751152799667</v>
       </c>
       <c r="R8">
-        <v>4.696751509641404</v>
+        <v>64.518760375197</v>
       </c>
       <c r="S8">
-        <v>0.02567237951462584</v>
+        <v>0.02542260157988704</v>
       </c>
       <c r="T8">
-        <v>0.02567237951462584</v>
+        <v>0.02587296705446703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H9">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I9">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J9">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="N9">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="O9">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="P9">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="Q9">
-        <v>19.08098741449034</v>
+        <v>38.99021186995033</v>
       </c>
       <c r="R9">
-        <v>19.08098741449034</v>
+        <v>350.9119068295529</v>
       </c>
       <c r="S9">
-        <v>0.1042964162385494</v>
+        <v>0.1382713112447788</v>
       </c>
       <c r="T9">
-        <v>0.1042964162385494</v>
+        <v>0.1407208097555378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H10">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I10">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J10">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="N10">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="O10">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="P10">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="Q10">
-        <v>24.58341420887162</v>
+        <v>36.53266157974033</v>
       </c>
       <c r="R10">
-        <v>24.58341420887162</v>
+        <v>328.7939542176629</v>
       </c>
       <c r="S10">
-        <v>0.1343726058404106</v>
+        <v>0.1295560802988497</v>
       </c>
       <c r="T10">
-        <v>0.1343726058404106</v>
+        <v>0.1318511870921165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H11">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I11">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J11">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.72799506347501</v>
+        <v>2.731955</v>
       </c>
       <c r="N11">
-        <v>2.72799506347501</v>
+        <v>5.46391</v>
       </c>
       <c r="O11">
-        <v>0.05914696656979722</v>
+        <v>0.0522203897564463</v>
       </c>
       <c r="P11">
-        <v>0.05914696656979722</v>
+        <v>0.03543032157151783</v>
       </c>
       <c r="Q11">
-        <v>3.296354145729957</v>
+        <v>4.898059284535</v>
       </c>
       <c r="R11">
-        <v>3.296354145729957</v>
+        <v>29.38835570721</v>
       </c>
       <c r="S11">
-        <v>0.01801782667660246</v>
+        <v>0.01737002820313683</v>
       </c>
       <c r="T11">
-        <v>0.01801782667660246</v>
+        <v>0.01178516069707238</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H12">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I12">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J12">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="N12">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="O12">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="P12">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="Q12">
-        <v>8.503091514609407</v>
+        <v>11.46418497826</v>
       </c>
       <c r="R12">
-        <v>8.503091514609407</v>
+        <v>103.17766480434</v>
       </c>
       <c r="S12">
-        <v>0.0464777819227899</v>
+        <v>0.04065553412697384</v>
       </c>
       <c r="T12">
-        <v>0.0464777819227899</v>
+        <v>0.0413757534508641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H13">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I13">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J13">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="N13">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="O13">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="P13">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="Q13">
-        <v>9.802688801128188</v>
+        <v>13.24215553708133</v>
       </c>
       <c r="R13">
-        <v>9.802688801128188</v>
+        <v>119.179399833732</v>
       </c>
       <c r="S13">
-        <v>0.05358136291641914</v>
+        <v>0.04696076584366293</v>
       </c>
       <c r="T13">
-        <v>0.05358136291641914</v>
+        <v>0.04779268336120579</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H14">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I14">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J14">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="N14">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="O14">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="P14">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="Q14">
-        <v>39.82432991367116</v>
+        <v>72.02292826191865</v>
       </c>
       <c r="R14">
-        <v>39.82432991367116</v>
+        <v>648.2063543572679</v>
       </c>
       <c r="S14">
-        <v>0.2176792426341269</v>
+        <v>0.2554155069400709</v>
       </c>
       <c r="T14">
-        <v>0.2176792426341269</v>
+        <v>0.2599402337126903</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H15">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I15">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J15">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="N15">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="O15">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="P15">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="Q15">
-        <v>51.30856053681249</v>
+        <v>67.48332819915866</v>
       </c>
       <c r="R15">
-        <v>51.30856053681249</v>
+        <v>607.3499537924279</v>
       </c>
       <c r="S15">
-        <v>0.2804518901513642</v>
+        <v>0.2393166856436298</v>
       </c>
       <c r="T15">
-        <v>0.2804518901513642</v>
+        <v>0.2435562192085216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H16">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I16">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J16">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.72799506347501</v>
+        <v>2.731955</v>
       </c>
       <c r="N16">
-        <v>2.72799506347501</v>
+        <v>5.46391</v>
       </c>
       <c r="O16">
-        <v>0.05914696656979722</v>
+        <v>0.0522203897564463</v>
       </c>
       <c r="P16">
-        <v>0.05914696656979722</v>
+        <v>0.03543032157151783</v>
       </c>
       <c r="Q16">
-        <v>6.879890026663691</v>
+        <v>9.04772135246</v>
       </c>
       <c r="R16">
-        <v>6.879890026663691</v>
+        <v>54.28632811476</v>
       </c>
       <c r="S16">
-        <v>0.0376053847900684</v>
+        <v>0.03208600915929369</v>
       </c>
       <c r="T16">
-        <v>0.0376053847900684</v>
+        <v>0.02176961198034928</v>
       </c>
     </row>
   </sheetData>
